--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0DA742-1825-45FC-9C30-97DED9FF2F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73A29DE-3BA2-4D5F-A62A-D1E71B180248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Czech" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Wg</t>
   </si>
@@ -88,6 +89,12 @@
   </si>
   <si>
     <t>NGC-3478/T2265</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1734</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
   </si>
 </sst>
 </file>
@@ -623,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,4 +736,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408B246F-5C58-451F-9AE5-A5847C0B3286}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73A29DE-3BA2-4D5F-A62A-D1E71B180248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0165C1-1CE2-4A35-9AC2-864FA9E0C351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Wg</t>
   </si>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0E2E1-6318-4988-A8FE-C1B73E6377E6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -628,10 +628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,16 +715,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -740,10 +735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408B246F-5C58-451F-9AE5-A5847C0B3286}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,16 +822,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0165C1-1CE2-4A35-9AC2-864FA9E0C351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8A961E-D8EB-4EF5-B283-48616AA4D2FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -95,6 +96,12 @@
   </si>
   <si>
     <t>Czech Market</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2344</t>
   </si>
 </sst>
 </file>
@@ -518,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0E2E1-6318-4988-A8FE-C1B73E6377E6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,7 +745,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,4 +845,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488FB5D4-8B23-4F0B-95EB-5641944BE760}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8A961E-D8EB-4EF5-B283-48616AA4D2FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28089B04-DAE6-4CE7-BA63-649F0B96859C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>NGC-3476/T2344</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2404</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -851,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488FB5D4-8B23-4F0B-95EB-5641944BE760}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,4 +959,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E17F76F-A99B-4DF3-819C-1808D84232B9}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28089B04-DAE6-4CE7-BA63-649F0B96859C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F6D5A4-1B82-49CE-B45C-9C4106581BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -109,6 +110,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3222</t>
   </si>
 </sst>
 </file>
@@ -965,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E17F76F-A99B-4DF3-819C-1808D84232B9}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,4 +1073,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4080EFAA-20D8-416B-AE87-5C1D8AEBE3B1}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F6D5A4-1B82-49CE-B45C-9C4106581BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F721872-F6E2-49B3-B030-63F205F9DE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
+    <sheet name="Italy" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -116,13 +117,19 @@
   </si>
   <si>
     <t>NGC-2930/T3222</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2155</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +148,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -223,6 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4080EFAA-20D8-416B-AE87-5C1D8AEBE3B1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,4 +1195,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E86BC5-ADF5-46FF-83D6-2BE88F62480B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F721872-F6E2-49B3-B030-63F205F9DE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84697393-F582-4D74-8D65-AEE84DA3AAB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
+    <sheet name="Spain" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -123,6 +124,12 @@
   </si>
   <si>
     <t>Italy Market</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2034</t>
   </si>
 </sst>
 </file>
@@ -231,13 +238,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,12 +574,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -581,10 +588,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -679,12 +686,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -693,10 +700,10 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -786,12 +793,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -800,10 +807,10 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -893,12 +900,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -907,10 +914,10 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1000,12 +1007,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1014,10 +1021,10 @@
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1107,12 +1114,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1121,10 +1128,10 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1201,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E86BC5-ADF5-46FF-83D6-2BE88F62480B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,12 +1221,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1228,10 +1235,10 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1247,8 +1254,114 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356AF890-BB39-469E-B73A-CDA111E3A482}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84697393-F582-4D74-8D65-AEE84DA3AAB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96930D56-8E0C-4377-BC0A-343785F5855C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -130,6 +131,12 @@
   </si>
   <si>
     <t>NGC-3103/T2034</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3291</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356AF890-BB39-469E-B73A-CDA111E3A482}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,4 +1422,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BD2B5A-962B-4B53-B22F-0628F9D2E1EF}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96930D56-8E0C-4377-BC0A-343785F5855C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A4D43-2EF6-487A-8CC2-0387BEEEA340}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>NGC-3191/T3291</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2415</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -676,6 +683,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F3E70E-FFF4-483E-849A-2660A12F0545}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
   <dimension ref="A1:D12"/>
@@ -1428,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BD2B5A-962B-4B53-B22F-0628F9D2E1EF}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A4D43-2EF6-487A-8CC2-0387BEEEA340}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAF382E-CD39-412B-ABF9-4825EC04802B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
+    <sheet name="Greece" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -144,6 +145,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3167</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -687,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F3E70E-FFF4-483E-849A-2660A12F0545}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,6 +741,112 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A683E5-C705-4134-AAD4-2E1596653608}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAF382E-CD39-412B-ABF9-4825EC04802B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB7852B-E206-4A57-9E1D-27CFB8E2C9B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
     <sheet name="Greece" sheetId="23" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
+    <sheet name="Austria" sheetId="25" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="26" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -151,6 +154,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2176</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -800,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A683E5-C705-4134-AAD4-2E1596653608}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -854,6 +875,322 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00E0EFC-5613-4604-879F-C8BC75CF49D4}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C4D02-07C2-4643-88C5-8460D20324FB}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0175268A-9423-4CBC-BA11-2CA28BB9A58D}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB7852B-E206-4A57-9E1D-27CFB8E2C9B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7BAA85-0100-4D13-925B-5F32B18A4D81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
     <sheet name="Austria" sheetId="25" r:id="rId13"/>
     <sheet name="Denmark" sheetId="26" r:id="rId14"/>
+    <sheet name="Russia" sheetId="28" r:id="rId15"/>
+    <sheet name="Finland" sheetId="29" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="30" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -172,6 +175,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2900</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2943</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2992</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C4D02-07C2-4643-88C5-8460D20324FB}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1239,6 +1260,324 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A17EED-F931-416C-9FB2-2C8C26C5C8C6}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A138B5-D36E-403B-9C34-D5A7B0A511E4}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA4DB9F-58F3-4F8B-98F6-3E4596C34E79}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
   <dimension ref="A1:D12"/>

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7BAA85-0100-4D13-925B-5F32B18A4D81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A87CAA-4643-462D-9581-68A34F9E10E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="28" r:id="rId15"/>
     <sheet name="Finland" sheetId="29" r:id="rId16"/>
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
+    <sheet name="Norway" sheetId="31" r:id="rId18"/>
+    <sheet name="Poland" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -193,6 +195,24 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3061</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3104</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
   </si>
 </sst>
 </file>
@@ -734,10 +754,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F3E70E-FFF4-483E-849A-2660A12F0545}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,21 +830,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -840,10 +870,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A683E5-C705-4134-AAD4-2E1596653608}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,21 +946,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1476,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA4DB9F-58F3-4F8B-98F6-3E4596C34E79}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
@@ -1565,6 +1605,238 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9695BABB-D2F3-4631-94FF-1475F1C8A332}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1869020B-724E-4481-B055-A9D7C81A0226}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1901,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E17F76F-A99B-4DF3-819C-1808D84232B9}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1978,21 +2250,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A87CAA-4643-462D-9581-68A34F9E10E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B048B4-E707-4702-8C25-DC7F2EA05ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -1514,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA4DB9F-58F3-4F8B-98F6-3E4596C34E79}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,11 +1600,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1738,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1869020B-724E-4481-B055-A9D7C81A0226}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2504,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356AF890-BB39-469E-B73A-CDA111E3A482}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2590,11 +2600,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2610,10 +2625,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BD2B5A-962B-4B53-B22F-0628F9D2E1EF}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2696,11 +2711,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B048B4-E707-4702-8C25-DC7F2EA05ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E3E68-BEB2-4D6E-ACF1-AA0A6D6520AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -986,10 +986,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00E0EFC-5613-4604-879F-C8BC75CF49D4}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,11 +1073,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1093,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C4D02-07C2-4643-88C5-8460D20324FB}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,11 +1185,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1195,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0175268A-9423-4CBC-BA11-2CA28BB9A58D}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,11 +1302,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2300,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4080EFAA-20D8-416B-AE87-5C1D8AEBE3B1}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2387,11 +2417,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2407,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E86BC5-ADF5-46FF-83D6-2BE88F62480B}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2494,11 +2534,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2516,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356AF890-BB39-469E-B73A-CDA111E3A482}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E3E68-BEB2-4D6E-ACF1-AA0A6D6520AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD85DE-FA92-4FBA-9472-DCE8785D2717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="14" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -1217,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0175268A-9423-4CBC-BA11-2CA28BB9A58D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
@@ -1332,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A17EED-F931-416C-9FB2-2C8C26C5C8C6}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,7 +1345,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1418,11 +1418,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1438,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A138B5-D36E-403B-9C34-D5A7B0A511E4}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,7 +1461,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1524,11 +1534,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro215Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD85DE-FA92-4FBA-9472-DCE8785D2717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B120C35E-AC93-49D1-89AA-27DA9C2A2300}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="14" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="13" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
     <sheet name="Norway" sheetId="31" r:id="rId18"/>
     <sheet name="Poland" sheetId="32" r:id="rId19"/>
+    <sheet name="UK" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="56">
   <si>
     <t>Wg</t>
   </si>
@@ -213,6 +214,12 @@
   </si>
   <si>
     <t>MX-BBX</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3343</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A17EED-F931-416C-9FB2-2C8C26C5C8C6}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
@@ -2017,6 +2024,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E7D019-4B12-4D4A-9391-A06CFBDF0954}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408B246F-5C58-451F-9AE5-A5847C0B3286}">
   <dimension ref="A1:D12"/>
